--- a/data/all-venues.xlsx
+++ b/data/all-venues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="122">
   <si>
     <t>Paper ID</t>
   </si>
@@ -263,9 +263,6 @@
     <t>ACIS-ICIS</t>
   </si>
   <si>
-    <t>CASE</t>
-  </si>
-  <si>
     <t>EMENA-ISTL</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
   </si>
   <si>
     <t>OPTIM</t>
-  </si>
-  <si>
-    <t>ICACIA</t>
   </si>
   <si>
     <t>Book</t>
@@ -545,15 +539,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C164" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:C164"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C160" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C160"/>
   <sortState ref="A2:C166">
     <sortCondition ref="A1:A166"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Paper ID" dataDxfId="3"/>
-    <tableColumn id="2" name="Venue" dataDxfId="2"/>
-    <tableColumn id="3" name="Type" dataDxfId="1"/>
+    <tableColumn id="1" name="Paper ID" dataDxfId="2"/>
+    <tableColumn id="2" name="Venue" dataDxfId="1"/>
+    <tableColumn id="3" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -822,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -876,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -887,7 +881,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -898,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -909,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -920,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -931,7 +925,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -953,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -997,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1019,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1030,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1041,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1052,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,7 +1068,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1085,7 +1079,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1096,7 +1090,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1107,7 +1101,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,7 +1112,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1129,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1140,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,7 +1143,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1157,10 +1151,10 @@
         <v>178</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1171,7 +1165,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,10 +1173,10 @@
         <v>205</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,7 +1187,7 @@
         <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,7 +1196,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,10 +1204,10 @@
         <v>265</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,7 +1218,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,7 +1229,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,10 +1237,10 @@
         <v>1901</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,7 +1251,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1268,7 +1262,7 @@
         <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,10 +1270,10 @@
         <v>1913</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,10 +1281,10 @@
         <v>1918</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,7 +1306,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,10 +1314,10 @@
         <v>1934</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,7 +1328,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,7 +1339,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,7 +1350,7 @@
         <v>27</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1367,7 +1361,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,7 +1372,7 @@
         <v>29</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,7 +1383,7 @@
         <v>29</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1400,7 +1394,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,7 +1405,7 @@
         <v>30</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +1416,7 @@
         <v>31</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,10 +1424,10 @@
         <v>2001</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1441,10 +1435,10 @@
         <v>2003</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,7 +1449,7 @@
         <v>32</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,10 +1457,10 @@
         <v>2009</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,10 +1468,10 @@
         <v>2014</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,7 +1482,7 @@
         <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,7 +1493,7 @@
         <v>34</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,7 +1504,7 @@
         <v>44</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,7 +1515,7 @@
         <v>35</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,7 +1526,7 @@
         <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,7 +1537,7 @@
         <v>37</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,7 +1548,7 @@
         <v>38</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,7 +1559,7 @@
         <v>39</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,7 +1570,7 @@
         <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,7 +1581,7 @@
         <v>41</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,7 +1592,7 @@
         <v>42</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,10 +1600,10 @@
         <v>2054</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,7 +1614,7 @@
         <v>43</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,7 +1625,7 @@
         <v>44</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,7 +1636,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,10 +1644,10 @@
         <v>2095</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,7 +1658,7 @@
         <v>19</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,10 +1666,10 @@
         <v>2105</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,7 +1680,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,10 +1688,10 @@
         <v>2108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,10 +1699,10 @@
         <v>2124</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1717,7 +1711,7 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1728,7 +1722,7 @@
         <v>19</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,7 +1733,7 @@
         <v>47</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,7 +1744,7 @@
         <v>48</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1761,7 +1755,7 @@
         <v>29</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1770,7 +1764,7 @@
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1789,10 +1783,10 @@
         <v>2252</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1801,7 +1795,7 @@
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,7 +1806,7 @@
         <v>51</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1823,7 +1817,7 @@
         <v>52</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1834,7 +1828,7 @@
         <v>53</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,7 +1839,7 @@
         <v>25</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,7 +1850,7 @@
         <v>37</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1864,10 +1858,10 @@
         <v>2557</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,7 +1872,7 @@
         <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1886,10 +1880,10 @@
         <v>2566</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1897,10 +1891,10 @@
         <v>2569</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1908,10 +1902,10 @@
         <v>2574</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1919,10 +1913,10 @@
         <v>2586</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,7 +1938,7 @@
         <v>54</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1955,7 +1949,7 @@
         <v>55</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1963,10 +1957,10 @@
         <v>2694</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,7 +1971,7 @@
         <v>56</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1985,10 +1979,10 @@
         <v>2720</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1996,10 +1990,10 @@
         <v>2721</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2010,7 +2004,7 @@
         <v>57</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2018,10 +2012,10 @@
         <v>2731</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2032,7 +2026,7 @@
         <v>58</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2040,10 +2034,10 @@
         <v>2765</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2051,10 +2045,10 @@
         <v>2811</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2065,7 +2059,7 @@
         <v>59</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2076,7 +2070,7 @@
         <v>44</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2087,7 +2081,7 @@
         <v>60</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2098,7 +2092,7 @@
         <v>61</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2106,10 +2100,10 @@
         <v>2889</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2117,10 +2111,10 @@
         <v>2904</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2128,10 +2122,10 @@
         <v>2905</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2139,10 +2133,10 @@
         <v>2907</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,7 +2147,7 @@
         <v>62</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2161,10 +2155,10 @@
         <v>2923</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2175,7 +2169,7 @@
         <v>63</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2186,7 +2180,7 @@
         <v>51</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2197,7 +2191,7 @@
         <v>64</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2208,411 +2202,367 @@
         <v>65</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
-        <v>3028</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>122</v>
+      <c r="A127">
+        <v>3071</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>3071</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>123</v>
+      <c r="A128" s="2">
+        <v>13621</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>13621</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2" t="s">
-        <v>82</v>
+      <c r="A129">
+        <v>13649</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>13649</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>116</v>
+      <c r="A130" s="3">
+        <v>13682</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
-        <v>13682</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3" t="s">
-        <v>108</v>
+      <c r="A131">
+        <v>13717</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>13717</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>14098</v>
+      </c>
+      <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>14098</v>
-      </c>
-      <c r="B133" s="1"/>
+        <v>14136</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C133" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>14136</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>122</v>
+      <c r="A134" s="2">
+        <v>14145</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>14145</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2" t="s">
-        <v>95</v>
+      <c r="A135">
+        <v>14356</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>14356</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>116</v>
+      <c r="A136" s="3">
+        <v>14777</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
-        <v>14777</v>
-      </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3" t="s">
-        <v>108</v>
+      <c r="A137">
+        <v>237068</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>237068</v>
+        <v>237094</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>237094</v>
+        <v>237136</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>237136</v>
+        <v>265248</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>237166</v>
+        <v>265374</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>265248</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>122</v>
+      <c r="A142" s="2">
+        <v>265471</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>265374</v>
+        <v>296369</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <v>265471</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>123</v>
+      <c r="A144">
+        <v>296382</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>296369</v>
+        <v>296393</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>296382</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>116</v>
+      <c r="A146" s="3">
+        <v>296424</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>296393</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>123</v>
+      <c r="A147" s="2">
+        <v>296444</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
-        <v>296424</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>123</v>
+      <c r="A148">
+        <v>296464</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>296444</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>123</v>
+      <c r="A149">
+        <v>321422</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>296464</v>
+        <v>333716</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>321422</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>123</v>
+      <c r="A151" s="3">
+        <v>374458</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>333716</v>
+        <v>374576</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
-        <v>374458</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>123</v>
+      <c r="A153">
+        <v>471320</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>374576</v>
+        <v>507542</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>471320</v>
+        <v>507613</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>507542</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>122</v>
+      <c r="A156" s="2">
+        <v>507928</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>507613</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>122</v>
+      <c r="A157" s="3">
+        <v>507986</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>507928</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2" t="s">
-        <v>82</v>
+      <c r="A158">
+        <v>558969</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
-        <v>507986</v>
-      </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3" t="s">
-        <v>82</v>
+      <c r="A159">
+        <v>559078</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>558969</v>
+        <v>932423</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>559078</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>559148</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>932423</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>932494</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/all-venues.xlsx
+++ b/data/all-venues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="111">
   <si>
     <t>Paper ID</t>
   </si>
@@ -80,9 +80,6 @@
     <t>EWG-DSS</t>
   </si>
   <si>
-    <t>EC-Web</t>
-  </si>
-  <si>
     <t>EMISA</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>FUSION</t>
   </si>
   <si>
-    <t>IPMU</t>
-  </si>
-  <si>
     <t>Grundlagen von Datenbanken</t>
   </si>
   <si>
@@ -233,18 +227,9 @@
     <t>Future Security</t>
   </si>
   <si>
-    <t>CEC</t>
-  </si>
-  <si>
     <t>IEEE Internet Comput.</t>
   </si>
   <si>
-    <t>Serv. Oriented Comput. Appl.</t>
-  </si>
-  <si>
-    <t>SOLI</t>
-  </si>
-  <si>
     <t>VLDB J.</t>
   </si>
   <si>
@@ -257,12 +242,6 @@
     <t>ANT/EDI40</t>
   </si>
   <si>
-    <t>ICWS</t>
-  </si>
-  <si>
-    <t>ACIS-ICIS</t>
-  </si>
-  <si>
     <t>EMENA-ISTL</t>
   </si>
   <si>
@@ -332,15 +311,9 @@
     <t>VIPSI-VIP</t>
   </si>
   <si>
-    <t>AFBE</t>
-  </si>
-  <si>
     <t>WiCOM</t>
   </si>
   <si>
-    <t>YC-ICT</t>
-  </si>
-  <si>
     <t>OPTIM</t>
   </si>
   <si>
@@ -350,9 +323,6 @@
     <t>Advanced Manufacturing Technology</t>
   </si>
   <si>
-    <t>Production Economics</t>
-  </si>
-  <si>
     <t>Industrial Engineering : Theory Applications and Practice</t>
   </si>
   <si>
@@ -360,9 +330,6 @@
   </si>
   <si>
     <t>Food Science of Animal Resources</t>
-  </si>
-  <si>
-    <t>Production Research</t>
   </si>
   <si>
     <t>BPMDS/EMMSAD Workshops</t>
@@ -539,8 +506,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C160" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C160"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C146" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C146"/>
   <sortState ref="A2:C166">
     <sortCondition ref="A1:A166"/>
   </sortState>
@@ -816,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:XFD127"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147:XFD149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,7 +969,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,7 +980,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,7 +991,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,7 +1013,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1057,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,7 +1035,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,1468 +1068,1314 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>150</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>166</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>81</v>
+      <c r="A29" s="2">
+        <v>178</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>178</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>120</v>
+      <c r="A30">
+        <v>189</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>189</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="3">
+        <v>205</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>245</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>205</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>120</v>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>245</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="2">
+        <v>248</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>271</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>248</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>81</v>
+      <c r="C34" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>265</v>
+        <v>1894</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>271</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>120</v>
+      <c r="A36" s="3">
+        <v>1901</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1894</v>
+        <v>1906</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>1901</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>121</v>
+      <c r="A38">
+        <v>1909</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1906</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="2">
+        <v>1913</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1918</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1926</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1909</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>1913</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>121</v>
+      <c r="C41" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>1918</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>121</v>
+      <c r="A42">
+        <v>1930</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1926</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>121</v>
+      <c r="A43" s="2">
+        <v>1934</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1930</v>
+        <v>1936</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>1934</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>121</v>
+      <c r="A45">
+        <v>1941</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1936</v>
+        <v>1942</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1941</v>
+        <v>1967</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1942</v>
+        <v>1969</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1969</v>
+        <v>1978</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1971</v>
+        <v>1990</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1978</v>
+        <v>1992</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1990</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>120</v>
+      <c r="A53" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1992</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2007</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>2001</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>120</v>
+      <c r="C55" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>120</v>
+      <c r="A56" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>2007</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2017</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>2009</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>120</v>
+      <c r="C58" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>114</v>
+      <c r="A59">
+        <v>2019</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2023</v>
+        <v>2035</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2028</v>
+        <v>2039</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2039</v>
+        <v>2051</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2040</v>
+        <v>2052</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2052</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>120</v>
+      <c r="A69" s="3">
+        <v>2054</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>2054</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>120</v>
+      <c r="A71">
+        <v>2076</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2058</v>
+        <v>2094</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2076</v>
+        <v>2095</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>2096</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>2105</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2106</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>2094</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>2095</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>2096</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>114</v>
+      <c r="C76" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>2105</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>121</v>
+      <c r="A77" s="2">
+        <v>2108</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>2106</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>121</v>
+      <c r="A78" s="3">
+        <v>2124</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>2108</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>2127</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>2124</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>114</v>
+      <c r="A80">
+        <v>2130</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>2127</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2" t="s">
-        <v>93</v>
+      <c r="A81">
+        <v>2131</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2130</v>
+        <v>2137</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2131</v>
+        <v>2142</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>2137</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>120</v>
+      <c r="A84" s="3">
+        <v>2195</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2142</v>
+        <v>2227</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>2195</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3" t="s">
-        <v>94</v>
+      <c r="A86" s="2">
+        <v>2252</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>2227</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="A87" s="3">
+        <v>2265</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2276</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>2252</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>121</v>
+      <c r="C88" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>2265</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3" t="s">
-        <v>94</v>
+      <c r="A89">
+        <v>2277</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2276</v>
+        <v>2344</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2277</v>
+        <v>2351</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2344</v>
+        <v>2392</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>2351</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>121</v>
+      <c r="A93" s="2">
+        <v>2557</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2392</v>
+        <v>2565</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>2557</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>120</v>
+      <c r="A95">
+        <v>2566</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>2565</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>120</v>
+      <c r="A96" s="3">
+        <v>2569</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>2566</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>114</v>
+      <c r="A97" s="2">
+        <v>2574</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>2569</v>
+        <v>2586</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>2574</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>120</v>
+      <c r="A99">
+        <v>2596</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>2586</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>120</v>
+      <c r="A100">
+        <v>2605</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2596</v>
+        <v>2673</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>2605</v>
+        <v>2694</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>2673</v>
+        <v>2709</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>2694</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>121</v>
+      <c r="A104" s="2">
+        <v>2720</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>2709</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="A105" s="3">
+        <v>2721</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2728</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>2720</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>120</v>
+      <c r="C106" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>2721</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>120</v>
+      <c r="A107">
+        <v>2731</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2728</v>
+        <v>2751</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>2731</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>114</v>
+      <c r="A109" s="2">
+        <v>2765</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>2751</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="A110" s="3">
+        <v>2811</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2816</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>2765</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>121</v>
+      <c r="C111" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>2811</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>120</v>
+      <c r="A112">
+        <v>2849</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>2816</v>
+        <v>2866</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>2849</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>114</v>
+      <c r="A114" s="3">
+        <v>2904</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>2861</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>120</v>
+      <c r="A115" s="3">
+        <v>2907</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>2866</v>
+        <v>2921</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>2889</v>
+        <v>2923</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
-        <v>2904</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>120</v>
+      <c r="A118">
+        <v>2932</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>2905</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>120</v>
+      <c r="A119">
+        <v>2964</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
-        <v>2907</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>114</v>
+      <c r="A120">
+        <v>2985</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>2921</v>
+        <v>2996</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>2923</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>120</v>
+      <c r="A122">
+        <v>3071</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>2932</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>13621</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2964</v>
+        <v>13649</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>2985</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>114</v>
+      <c r="A125" s="3">
+        <v>13682</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>2996</v>
+        <v>13717</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>3071</v>
-      </c>
-      <c r="B127" s="1" t="s">
+        <v>14098</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>14136</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>13621</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2" t="s">
-        <v>81</v>
+      <c r="C128" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>13649</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>114</v>
+      <c r="A129" s="2">
+        <v>14145</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
-        <v>13682</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3" t="s">
-        <v>106</v>
+      <c r="A130">
+        <v>14356</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>13717</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>120</v>
+      <c r="A131" s="3">
+        <v>14777</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>14098</v>
-      </c>
-      <c r="B132" s="1"/>
+        <v>237068</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C132" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>14136</v>
+        <v>237136</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>14145</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2" t="s">
-        <v>94</v>
+      <c r="A134">
+        <v>265248</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>14356</v>
+        <v>265374</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
-        <v>14777</v>
-      </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3" t="s">
-        <v>106</v>
+      <c r="A136" s="2">
+        <v>265471</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>237068</v>
+        <v>296369</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>237094</v>
+        <v>296393</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>237136</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>121</v>
+      <c r="A139" s="2">
+        <v>296444</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>265248</v>
+        <v>296464</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>265374</v>
+        <v>374576</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>265471</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>121</v>
+      <c r="A142">
+        <v>471320</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>296369</v>
+        <v>507542</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>296382</v>
+        <v>507613</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>296393</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>121</v>
+      <c r="A145" s="2">
+        <v>507928</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>296424</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>507986</v>
+      </c>
+      <c r="B146" s="3"/>
       <c r="C146" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>296444</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>296464</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>321422</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>333716</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
-        <v>374458</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>374576</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>471320</v>
-      </c>
-      <c r="B153" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>507542</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>507613</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>507928</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
-        <v>507986</v>
-      </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>558969</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>559078</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>932423</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
